--- a/datasets/PhishingFail.xlsx
+++ b/datasets/PhishingFail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timkossmann/Desktop/Uni/Semester 6/Data Storytelling/storytelling/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4AD653-34E3-5243-A8EB-D8D14BA7657D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7459F75-84AD-8C4A-BBB6-86EB5E202E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{D1433362-0750-0140-9CB8-B97983E19B8A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{D1433362-0750-0140-9CB8-B97983E19B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Fehlerquote</t>
-  </si>
-  <si>
     <t>Art</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Abteilung</t>
+  </si>
+  <si>
+    <t>Fehlerquote (%)</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -544,10 +544,10 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -558,7 +558,7 @@
         <v>0.09</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -569,7 +569,7 @@
         <v>0.09</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -580,7 +580,7 @@
         <v>0.09</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -591,7 +591,7 @@
         <v>0.1</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -602,7 +602,7 @@
         <v>0.1</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>0.1</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
         <v>0.11</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>0.11</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -646,7 +646,7 @@
         <v>0.11</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -657,7 +657,7 @@
         <v>0.11</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>0.11</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -679,7 +679,7 @@
         <v>0.11</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -690,7 +690,7 @@
         <v>0.11</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -701,7 +701,7 @@
         <v>0.12</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>0.12</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
         <v>0.12</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -734,7 +734,7 @@
         <v>0.13</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -745,7 +745,7 @@
         <v>0.13</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -756,7 +756,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -767,183 +767,183 @@
         <v>0.16</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>0.08</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>0.08</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
         <v>0.09</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
         <v>0.09</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
         <v>0.1</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
         <v>0.1</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
         <v>0.1</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
         <v>0.1</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
         <v>0.11</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
         <v>0.11</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <v>0.11</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <v>0.11</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
         <v>0.12</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
         <v>0.12</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="1">
         <v>0.12</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -954,40 +954,40 @@
         <v>0.13</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1">
         <v>0.15</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1">
         <v>0.17</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/PhishingFail.xlsx
+++ b/datasets/PhishingFail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timkossmann/Desktop/Uni/Semester 6/Data Storytelling/storytelling/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7459F75-84AD-8C4A-BBB6-86EB5E202E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B5E5FF-5369-D94F-BDC5-E6A457D17EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{D1433362-0750-0140-9CB8-B97983E19B8A}"/>
   </bookViews>
@@ -45,24 +45,12 @@
     <t>Unterhaltung/Medien</t>
   </si>
   <si>
-    <t>Automobilbranche</t>
-  </si>
-  <si>
     <t>Lebensmittel/Getränke</t>
   </si>
   <si>
-    <t>Gesundheitswesen</t>
-  </si>
-  <si>
     <t>Behörden</t>
   </si>
   <si>
-    <t>Fertigungsindustrie</t>
-  </si>
-  <si>
-    <t>Finanzdienstleister</t>
-  </si>
-  <si>
     <t>Geschäftliche Dienstleistungen</t>
   </si>
   <si>
@@ -81,18 +69,12 @@
     <t>Versicherungen</t>
   </si>
   <si>
-    <t>Energie- und Versorgungsunterehmen</t>
-  </si>
-  <si>
     <t>Bildungswesen</t>
   </si>
   <si>
     <t>Bergbau</t>
   </si>
   <si>
-    <t>Telekommunikation</t>
-  </si>
-  <si>
     <t>Entwicklung</t>
   </si>
   <si>
@@ -108,9 +90,6 @@
     <t>Einkauf</t>
   </si>
   <si>
-    <t>Informationstechnologie</t>
-  </si>
-  <si>
     <t>Forschung und Entwicklung</t>
   </si>
   <si>
@@ -166,6 +145,27 @@
   </si>
   <si>
     <t>Fehlerquote (%)</t>
+  </si>
+  <si>
+    <t>Energie und Versorgung</t>
+  </si>
+  <si>
+    <t>Finanz- dienstleister</t>
+  </si>
+  <si>
+    <t>Tele- kommunikation</t>
+  </si>
+  <si>
+    <t>Informations- technologie</t>
+  </si>
+  <si>
+    <t>Automobil</t>
+  </si>
+  <si>
+    <t>Gesundheits- wesen</t>
+  </si>
+  <si>
+    <t>Fertigungs- industrie</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1854A439-20C5-3342-8A87-545E0C3FA35E}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,13 +541,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -558,7 +558,7 @@
         <v>0.09</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -569,7 +569,7 @@
         <v>0.09</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -580,414 +580,414 @@
         <v>0.09</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1">
         <v>0.1</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
         <v>0.1</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1">
         <v>0.1</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>0.11</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1">
         <v>0.11</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
         <v>0.11</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>0.11</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>0.11</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <v>0.11</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
         <v>0.11</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>0.12</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
         <v>0.12</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>0.12</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
         <v>0.13</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1">
         <v>0.13</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1">
         <v>0.16</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1">
         <v>0.08</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1">
         <v>0.08</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1">
         <v>0.09</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1">
         <v>0.09</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B27" s="1">
         <v>0.1</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B28" s="1">
         <v>0.1</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1">
         <v>0.1</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>0.1</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
         <v>0.11</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B32" s="1">
         <v>0.11</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1">
         <v>0.11</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1">
         <v>0.11</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1">
         <v>0.12</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1">
         <v>0.12</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1">
         <v>0.12</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1">
         <v>0.13</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1">
         <v>0.15</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1">
         <v>0.17</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
